--- a/汽柴煤油2.0/eta/石脑油-Brent拟合残差_Brent_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/石脑油-Brent拟合残差_Brent_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-25.8</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-16</v>
+        <v>-15.7</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>0.9</v>
       </c>
       <c r="C4" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5">
@@ -510,7 +510,7 @@
         <v>-26</v>
       </c>
       <c r="C6" t="n">
-        <v>-26.1</v>
+        <v>-25.9</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>-18.7</v>
       </c>
       <c r="C7" t="n">
-        <v>-19.2</v>
+        <v>-19.1</v>
       </c>
     </row>
     <row r="8">
@@ -549,7 +549,7 @@
         <v>-23.3</v>
       </c>
       <c r="C9" t="n">
-        <v>-23.2</v>
+        <v>-23.3</v>
       </c>
     </row>
     <row r="10">
@@ -601,7 +601,7 @@
         <v>13.7</v>
       </c>
       <c r="C13" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="14">
@@ -627,7 +627,7 @@
         <v>39.5</v>
       </c>
       <c r="C15" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="16">
@@ -640,7 +640,7 @@
         <v>24.4</v>
       </c>
       <c r="C16" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="17">
@@ -731,7 +731,7 @@
         <v>17.3</v>
       </c>
       <c r="C23" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="24">
@@ -744,7 +744,7 @@
         <v>18.9</v>
       </c>
       <c r="C24" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="25">
